--- a/login_mahasiswa.xlsx
+++ b/login_mahasiswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyBook SAGA 10\Documents\git\Aplikasi_Kinerja_Mahasiswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5BEFF-8DF8-4A56-99A0-89D6B98949B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80030FC4-C32F-4366-BB10-C871A8701C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Mahasiswa" sheetId="1" r:id="rId1"/>
@@ -3478,13 +3478,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
